--- a/用例数据/深B/普通交易/普通交易/T日/测试结果.xlsx
+++ b/用例数据/深B/普通交易/普通交易/T日/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="258">
   <si>
     <t>ACCTID</t>
   </si>
@@ -770,10 +770,31 @@
     <t>1.000000</t>
   </si>
   <si>
-    <t>-7000</t>
-  </si>
-  <si>
     <t>3.1600</t>
+  </si>
+  <si>
+    <t>1.56000000</t>
+  </si>
+  <si>
+    <t>35.10000000</t>
+  </si>
+  <si>
+    <t>30360.0000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>18.20000000</t>
+  </si>
+  <si>
+    <t>31600.0000</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1123,7 @@
   <dimension ref="A1:DD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I5" sqref="I5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2570,7 @@
   <dimension ref="A1:DA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I2" sqref="I2:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3966,7 +3987,7 @@
   <dimension ref="A1:CH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4520,22 +4541,22 @@
         <v>134</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>134</v>
@@ -4571,7 +4592,7 @@
         <v>246</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>134</v>
@@ -4694,7 +4715,7 @@
         <v>132</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>126</v>
@@ -4780,22 +4801,22 @@
         <v>134</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>134</v>
@@ -4954,7 +4975,7 @@
         <v>132</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>126</v>
@@ -5040,22 +5061,22 @@
         <v>134</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>134</v>
@@ -5091,7 +5112,7 @@
         <v>246</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>134</v>
@@ -5214,7 +5235,7 @@
         <v>132</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>126</v>
@@ -5284,5 +5305,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>